--- a/aci_build_input_data_test.xlsx
+++ b/aci_build_input_data_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="983" firstSheet="60" activeTab="69" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="16470" tabRatio="983" firstSheet="60" activeTab="69" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Front_page" sheetId="1" state="visible" r:id="rId1"/>
@@ -1271,19 +1271,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10119,17 +10119,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="87" name="bridge_domain" displayName="bridge_domain" ref="A1:V2" headerRowCount="1" insertRow="1" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197" tableBorderDxfId="196">
   <autoFilter ref="A1:V2"/>
   <tableColumns count="22">
-    <tableColumn id="3" name="name" dataDxfId="195" dataCellStyle="Input"/>
-    <tableColumn id="16" name="description" dataDxfId="194" dataCellStyle="Input"/>
-    <tableColumn id="1" name="tenant" dataDxfId="193" dataCellStyle="Input"/>
-    <tableColumn id="2" name="vrf" dataDxfId="192" dataCellStyle="Input"/>
-    <tableColumn id="6" name="l2_unknown_unicast" dataDxfId="191" dataCellStyle="Input"/>
-    <tableColumn id="7" name="l3_unknown_multicast" dataDxfId="190" dataCellStyle="Input"/>
-    <tableColumn id="8" name="multi_dest_flood" dataDxfId="189" dataCellStyle="Input"/>
-    <tableColumn id="4" name="enablePim" dataDxfId="188" dataCellStyle="Input"/>
-    <tableColumn id="9" name="arp_flood" dataDxfId="187" dataCellStyle="Input"/>
-    <tableColumn id="10" name="unicast_routing" dataDxfId="186" dataCellStyle="Input"/>
-    <tableColumn id="17" name="limit_ip_learning_to_subnet" dataDxfId="185" dataCellStyle="Input"/>
+    <tableColumn id="3" name="name" dataDxfId="195"/>
+    <tableColumn id="16" name="description" dataDxfId="194"/>
+    <tableColumn id="1" name="tenant" dataDxfId="193"/>
+    <tableColumn id="2" name="vrf" dataDxfId="192"/>
+    <tableColumn id="6" name="l2_unknown_unicast" dataDxfId="191"/>
+    <tableColumn id="7" name="l3_unknown_multicast" dataDxfId="190"/>
+    <tableColumn id="8" name="multi_dest_flood" dataDxfId="189"/>
+    <tableColumn id="4" name="enablePim" dataDxfId="188"/>
+    <tableColumn id="9" name="arp_flood" dataDxfId="187"/>
+    <tableColumn id="10" name="unicast_routing" dataDxfId="186"/>
+    <tableColumn id="17" name="limit_ip_learning_to_subnet" dataDxfId="185"/>
     <tableColumn id="18" name="endpoint_data_plane_learning" dataDxfId="184"/>
     <tableColumn id="22" name="endpoint_move_detect_mode" dataDxfId="183"/>
     <tableColumn id="11" name="igmp_snoop_policy" dataDxfId="182"/>
@@ -10706,8 +10706,8 @@
     <col width="8.6640625" bestFit="1" customWidth="1" style="45" min="5" max="5"/>
     <col width="13.109375" bestFit="1" customWidth="1" style="45" min="6" max="6"/>
     <col width="5" customWidth="1" style="45" min="7" max="7"/>
-    <col width="10.77734375" customWidth="1" style="45" min="8" max="8"/>
-    <col width="10.77734375" customWidth="1" style="45" min="9" max="16384"/>
+    <col width="10.77734375" customWidth="1" style="45" min="8" max="9"/>
+    <col width="10.77734375" customWidth="1" style="45" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -22764,7 +22764,7 @@
           <t>SNMP Monitoring destination Group Name</t>
         </is>
       </c>
-      <c r="B12" s="182" t="inlineStr">
+      <c r="B12" s="180" t="inlineStr">
         <is>
           <t>snmp_trap_receiver</t>
         </is>
@@ -23913,8 +23913,8 @@
   <cols>
     <col width="11" customWidth="1" style="47" min="1" max="1"/>
     <col width="30" bestFit="1" customWidth="1" style="47" min="2" max="2"/>
-    <col width="10.77734375" customWidth="1" style="47" min="3" max="3"/>
-    <col width="10.77734375" customWidth="1" style="47" min="4" max="16384"/>
+    <col width="10.77734375" customWidth="1" style="47" min="3" max="4"/>
+    <col width="10.77734375" customWidth="1" style="47" min="5" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -35347,7 +35347,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -36414,8 +36414,8 @@
     <col width="14.44140625" bestFit="1" customWidth="1" style="186" min="12" max="12"/>
     <col width="22.33203125" customWidth="1" style="186" min="13" max="13"/>
     <col width="17.6640625" customWidth="1" style="186" min="14" max="14"/>
-    <col width="8.77734375" customWidth="1" style="186" min="15" max="15"/>
-    <col width="8.77734375" customWidth="1" style="186" min="16" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="186" min="15" max="16"/>
+    <col width="8.77734375" customWidth="1" style="186" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
